--- a/examples/工具设置/渠道商品价格.xlsx
+++ b/examples/工具设置/渠道商品价格.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUAWEI\Documents\软件\聚水潭导单回单工具\工具设置\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B800EA87-042B-427D-92F3-C336FCC1B890}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C64C98EA-925E-42F1-ABB6-26C0A1D628D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" xr2:uid="{FEB03922-C9CE-4276-BBCE-7733B61ABFF0}"/>
+    <workbookView xWindow="44880" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{FEB03922-C9CE-4276-BBCE-7733B61ABFF0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="118">
   <si>
     <t>是否头部</t>
   </si>
@@ -115,9 +115,6 @@
   </si>
   <si>
     <t>送随机调味料*2</t>
-  </si>
-  <si>
-    <t>ZHZ0389</t>
   </si>
   <si>
     <t>8盒</t>
@@ -380,13 +377,20 @@
   </si>
   <si>
     <t>ZHZ0465</t>
+  </si>
+  <si>
+    <t>ZHZ0580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZHZ0540</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -419,6 +423,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -428,12 +440,21 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -442,7 +463,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +471,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -769,7 +793,7 @@
   <dimension ref="A1:W207"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -832,16 +856,16 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" t="s">
         <v>22</v>
       </c>
       <c r="D2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" t="s">
         <v>61</v>
-      </c>
-      <c r="E2" t="s">
-        <v>62</v>
       </c>
       <c r="F2" t="s">
         <v>17</v>
@@ -856,7 +880,7 @@
         <v>0.32</v>
       </c>
       <c r="K2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
@@ -875,19 +899,19 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H3">
         <v>99.9</v>
@@ -899,7 +923,7 @@
         <v>0.25</v>
       </c>
       <c r="K3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
@@ -918,13 +942,13 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C4" t="s">
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -942,7 +966,7 @@
         <v>0.25</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
@@ -961,13 +985,13 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C5" t="s">
         <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E5" t="s">
         <v>16</v>
@@ -985,7 +1009,7 @@
         <v>0.25</v>
       </c>
       <c r="K5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -1004,16 +1028,16 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" t="s">
         <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F6" t="s">
         <v>17</v>
@@ -1028,7 +1052,7 @@
         <v>0.25</v>
       </c>
       <c r="K6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
@@ -1047,13 +1071,13 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" t="s">
         <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
         <v>20</v>
@@ -1071,7 +1095,7 @@
         <v>0.22</v>
       </c>
       <c r="K7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
@@ -1090,13 +1114,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E8" t="s">
         <v>26</v>
@@ -1114,7 +1138,7 @@
         <v>0.25</v>
       </c>
       <c r="K8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
@@ -1133,16 +1157,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
         <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
         <v>17</v>
@@ -1157,7 +1181,7 @@
         <v>0.25</v>
       </c>
       <c r="K9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
@@ -1176,16 +1200,16 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C10" t="s">
         <v>22</v>
       </c>
       <c r="D10" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" t="s">
         <v>70</v>
-      </c>
-      <c r="E10" t="s">
-        <v>71</v>
       </c>
       <c r="F10" t="s">
         <v>17</v>
@@ -1200,7 +1224,7 @@
         <v>0.22</v>
       </c>
       <c r="K10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
@@ -1219,16 +1243,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
         <v>17</v>
@@ -1243,7 +1267,7 @@
         <v>0.22</v>
       </c>
       <c r="K11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
@@ -1262,16 +1286,16 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F12" t="s">
         <v>17</v>
@@ -1286,7 +1310,7 @@
         <v>0.25</v>
       </c>
       <c r="K12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
@@ -1305,16 +1329,16 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="D13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
         <v>17</v>
@@ -1329,7 +1353,7 @@
         <v>0.25</v>
       </c>
       <c r="K13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
@@ -1348,16 +1372,16 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>17</v>
@@ -1372,7 +1396,7 @@
         <v>0.25</v>
       </c>
       <c r="K14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
@@ -1391,16 +1415,16 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -1415,7 +1439,7 @@
         <v>0.25</v>
       </c>
       <c r="K15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
@@ -1434,16 +1458,16 @@
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
         <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F16" t="s">
         <v>17</v>
@@ -1458,7 +1482,7 @@
         <v>0.22</v>
       </c>
       <c r="K16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1"/>
@@ -1477,16 +1501,16 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C17" t="s">
         <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
         <v>17</v>
@@ -1501,7 +1525,7 @@
         <v>0.22</v>
       </c>
       <c r="K17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1"/>
@@ -1520,16 +1544,16 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C18" t="s">
         <v>22</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
         <v>17</v>
@@ -1544,7 +1568,7 @@
         <v>0.22</v>
       </c>
       <c r="K18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1"/>
@@ -1563,16 +1587,16 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>17</v>
@@ -1587,10 +1611,10 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
@@ -1609,16 +1633,16 @@
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C20" t="s">
         <v>22</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
         <v>17</v>
@@ -1633,7 +1657,7 @@
         <v>0.25</v>
       </c>
       <c r="K20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
@@ -1652,16 +1676,16 @@
         <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
       </c>
       <c r="D21" t="s">
+        <v>47</v>
+      </c>
+      <c r="E21" t="s">
         <v>48</v>
-      </c>
-      <c r="E21" t="s">
-        <v>49</v>
       </c>
       <c r="F21" t="s">
         <v>17</v>
@@ -1676,7 +1700,7 @@
         <v>0.25</v>
       </c>
       <c r="K21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
@@ -1695,16 +1719,16 @@
         <v>12</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>22</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F22" t="s">
         <v>17</v>
@@ -1719,7 +1743,7 @@
         <v>0.25</v>
       </c>
       <c r="K22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
@@ -1738,16 +1762,16 @@
         <v>12</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C23" t="s">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
         <v>17</v>
@@ -1762,7 +1786,7 @@
         <v>0.25</v>
       </c>
       <c r="K23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
@@ -1781,16 +1805,16 @@
         <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C24" t="s">
         <v>22</v>
       </c>
       <c r="D24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F24" t="s">
         <v>17</v>
@@ -1805,7 +1829,7 @@
         <v>0.25</v>
       </c>
       <c r="K24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
@@ -1824,16 +1848,16 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C25" t="s">
         <v>22</v>
       </c>
       <c r="D25" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
         <v>56</v>
-      </c>
-      <c r="E25" t="s">
-        <v>57</v>
       </c>
       <c r="F25" t="s">
         <v>17</v>
@@ -1848,7 +1872,7 @@
         <v>0.25</v>
       </c>
       <c r="K25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
@@ -1867,16 +1891,16 @@
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
         <v>22</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s">
         <v>17</v>
@@ -1891,7 +1915,7 @@
         <v>0.25</v>
       </c>
       <c r="K26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
@@ -1910,16 +1934,16 @@
         <v>12</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
         <v>22</v>
       </c>
       <c r="D27" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" t="s">
         <v>78</v>
-      </c>
-      <c r="E27" t="s">
-        <v>79</v>
       </c>
       <c r="F27" t="s">
         <v>17</v>
@@ -1934,7 +1958,7 @@
         <v>0.25</v>
       </c>
       <c r="K27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
@@ -1953,16 +1977,16 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
         <v>22</v>
       </c>
       <c r="D28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E28" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F28" t="s">
         <v>17</v>
@@ -1977,7 +2001,7 @@
         <v>0.25</v>
       </c>
       <c r="K28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
@@ -1996,16 +2020,16 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" t="s">
         <v>22</v>
       </c>
       <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
         <v>45</v>
-      </c>
-      <c r="E29" t="s">
-        <v>46</v>
       </c>
       <c r="F29" t="s">
         <v>17</v>
@@ -2020,7 +2044,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K29" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
@@ -2039,16 +2063,16 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" t="s">
         <v>22</v>
       </c>
       <c r="D30" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F30" t="s">
         <v>17</v>
@@ -2063,7 +2087,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
@@ -2082,16 +2106,16 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" t="s">
         <v>14</v>
       </c>
       <c r="D31" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" t="s">
         <v>82</v>
-      </c>
-      <c r="E31" t="s">
-        <v>83</v>
       </c>
       <c r="F31" t="s">
         <v>17</v>
@@ -2106,7 +2130,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="K31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
@@ -2324,7 +2348,7 @@
         <v>29</v>
       </c>
       <c r="G36" t="s">
-        <v>30</v>
+        <v>116</v>
       </c>
       <c r="H36">
         <v>149.9</v>
@@ -2364,13 +2388,13 @@
         <v>23</v>
       </c>
       <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="F37" t="s">
         <v>31</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>32</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
       </c>
       <c r="H37">
         <v>199.8</v>
@@ -2407,7 +2431,7 @@
         <v>22</v>
       </c>
       <c r="D38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
         <v>24</v>
@@ -2416,7 +2440,7 @@
         <v>17</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H38">
         <v>84.9</v>
@@ -2453,16 +2477,16 @@
         <v>22</v>
       </c>
       <c r="D39" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
         <v>17</v>
       </c>
       <c r="G39" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H39">
         <v>119.9</v>
@@ -2499,7 +2523,7 @@
         <v>22</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E40" t="s">
         <v>26</v>
@@ -2508,7 +2532,7 @@
         <v>17</v>
       </c>
       <c r="G40" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H40">
         <v>139.9</v>
@@ -2545,7 +2569,7 @@
         <v>22</v>
       </c>
       <c r="D41" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E41" t="s">
         <v>24</v>
@@ -2554,7 +2578,7 @@
         <v>17</v>
       </c>
       <c r="G41" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H41">
         <v>53.9</v>
@@ -2591,7 +2615,7 @@
         <v>22</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E42" t="s">
         <v>26</v>
@@ -2600,7 +2624,7 @@
         <v>17</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H42">
         <v>86.9</v>
@@ -2637,16 +2661,16 @@
         <v>22</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F43" t="s">
         <v>17</v>
       </c>
       <c r="G43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H43">
         <v>74.900000000000006</v>
@@ -2677,22 +2701,22 @@
         <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
         <v>22</v>
       </c>
       <c r="D44" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E44" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F44" t="s">
         <v>17</v>
       </c>
       <c r="G44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H44">
         <v>99.9</v>
@@ -2720,7 +2744,7 @@
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>14</v>
@@ -2735,7 +2759,7 @@
         <v>17</v>
       </c>
       <c r="G45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H45">
         <v>71.900000000000006</v>
@@ -2763,7 +2787,7 @@
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
         <v>14</v>
@@ -2778,7 +2802,7 @@
         <v>17</v>
       </c>
       <c r="G46" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H46">
         <v>99.9</v>
@@ -2806,22 +2830,22 @@
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C47" t="s">
         <v>14</v>
       </c>
       <c r="D47" t="s">
+        <v>36</v>
+      </c>
+      <c r="E47" t="s">
         <v>37</v>
-      </c>
-      <c r="E47" t="s">
-        <v>38</v>
       </c>
       <c r="F47" t="s">
         <v>17</v>
       </c>
       <c r="G47" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47">
         <v>89.9</v>
@@ -2849,16 +2873,16 @@
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B48" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C48" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
         <v>53</v>
-      </c>
-      <c r="E48" t="s">
-        <v>54</v>
       </c>
       <c r="F48" t="s">
         <v>17</v>
@@ -2889,16 +2913,16 @@
     </row>
     <row r="49" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C49" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F49" t="s">
         <v>17</v>
@@ -2929,22 +2953,22 @@
     </row>
     <row r="50" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C50" t="s">
         <v>22</v>
       </c>
       <c r="D50" t="s">
+        <v>39</v>
+      </c>
+      <c r="E50" t="s">
         <v>40</v>
-      </c>
-      <c r="E50" t="s">
-        <v>41</v>
       </c>
       <c r="F50" t="s">
         <v>17</v>
       </c>
       <c r="G50" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H50">
         <v>54.9</v>
@@ -2972,22 +2996,22 @@
     </row>
     <row r="51" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C51" t="s">
         <v>22</v>
       </c>
       <c r="D51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
         <v>17</v>
       </c>
       <c r="G51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H51">
         <v>94.9</v>
@@ -3015,22 +3039,22 @@
     </row>
     <row r="52" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" t="s">
         <v>22</v>
       </c>
       <c r="D52" t="s">
+        <v>44</v>
+      </c>
+      <c r="E52" t="s">
         <v>45</v>
       </c>
-      <c r="E52" t="s">
+      <c r="F52" t="s">
         <v>46</v>
       </c>
-      <c r="F52" t="s">
-        <v>47</v>
-      </c>
       <c r="G52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H52">
         <v>99.9</v>
@@ -3058,22 +3082,22 @@
     </row>
     <row r="53" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B53" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C53" t="s">
         <v>22</v>
       </c>
       <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
         <v>48</v>
       </c>
-      <c r="E53" t="s">
+      <c r="F53" t="s">
         <v>49</v>
       </c>
-      <c r="F53" t="s">
-        <v>50</v>
-      </c>
       <c r="G53" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H53">
         <v>99.9</v>
@@ -3101,22 +3125,22 @@
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B54" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C54" t="s">
         <v>22</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E54" t="s">
+        <v>50</v>
+      </c>
+      <c r="F54" t="s">
         <v>51</v>
       </c>
-      <c r="F54" t="s">
-        <v>52</v>
-      </c>
       <c r="G54" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H54">
         <v>169.9</v>
@@ -3144,22 +3168,22 @@
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B55" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C55" t="s">
         <v>22</v>
       </c>
       <c r="D55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E55" t="s">
         <v>56</v>
-      </c>
-      <c r="E55" t="s">
-        <v>57</v>
       </c>
       <c r="F55" t="s">
         <v>17</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="H55">
         <v>74.900000000000006</v>
@@ -3187,22 +3211,22 @@
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B56" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" t="s">
         <v>22</v>
       </c>
       <c r="D56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F56" t="s">
         <v>17</v>
       </c>
       <c r="G56" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H56">
         <v>99.9</v>
@@ -3230,7 +3254,7 @@
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B57" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" t="s">
         <v>22</v>
@@ -3239,13 +3263,13 @@
         <v>23</v>
       </c>
       <c r="E57" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F57" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H57">
         <v>129.9</v>
@@ -3273,7 +3297,7 @@
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B58" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
         <v>22</v>
@@ -3285,10 +3309,10 @@
         <v>28</v>
       </c>
       <c r="F58" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G58" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H58">
         <v>149.9</v>
@@ -3316,7 +3340,7 @@
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
         <v>22</v>
@@ -3325,13 +3349,13 @@
         <v>23</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F59" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G59" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H59">
         <v>199.8</v>
@@ -3359,7 +3383,7 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C60" t="s">
         <v>22</v>
@@ -3368,13 +3392,13 @@
         <v>23</v>
       </c>
       <c r="E60" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H60">
         <v>129.9</v>
@@ -3402,16 +3426,16 @@
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C61" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
         <v>17</v>
@@ -3442,13 +3466,13 @@
     </row>
     <row r="62" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B62" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
         <v>22</v>
       </c>
       <c r="D62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E62" t="s">
         <v>16</v>
@@ -3482,16 +3506,16 @@
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
         <v>22</v>
       </c>
       <c r="D63" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F63" t="s">
         <v>17</v>
@@ -3522,13 +3546,13 @@
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>22</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
         <v>24</v>
@@ -3562,13 +3586,13 @@
     </row>
     <row r="65" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B65" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C65" t="s">
         <v>22</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
         <v>26</v>
@@ -3602,22 +3626,22 @@
     </row>
     <row r="66" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B66" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C66" t="s">
         <v>22</v>
       </c>
       <c r="D66" t="s">
+        <v>44</v>
+      </c>
+      <c r="E66" t="s">
         <v>45</v>
       </c>
-      <c r="E66" t="s">
-        <v>46</v>
-      </c>
       <c r="F66" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="G66" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H66">
         <v>99.9</v>
@@ -3645,7 +3669,7 @@
     </row>
     <row r="67" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C67" t="s">
         <v>22</v>
@@ -3654,10 +3678,13 @@
         <v>23</v>
       </c>
       <c r="E67" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F67" t="s">
-        <v>98</v>
+        <v>97</v>
+      </c>
+      <c r="G67" t="s">
+        <v>101</v>
       </c>
       <c r="I67">
         <v>104</v>
@@ -3679,7 +3706,7 @@
     </row>
     <row r="68" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C68" t="s">
         <v>22</v>
@@ -3691,10 +3718,10 @@
         <v>28</v>
       </c>
       <c r="F68" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G68" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I68">
         <v>119</v>
@@ -3716,16 +3743,19 @@
     </row>
     <row r="69" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C69" t="s">
         <v>22</v>
       </c>
       <c r="D69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E69" t="s">
         <v>16</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>117</v>
       </c>
       <c r="H69">
         <v>69.900000000000006</v>
@@ -3753,19 +3783,19 @@
     </row>
     <row r="70" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C70" t="s">
         <v>22</v>
       </c>
       <c r="D70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+      <c r="G70" t="s">
         <v>108</v>
-      </c>
-      <c r="E70" t="s">
-        <v>49</v>
-      </c>
-      <c r="G70" t="s">
-        <v>109</v>
       </c>
       <c r="H70">
         <v>99.9</v>
@@ -3793,7 +3823,7 @@
     </row>
     <row r="71" spans="1:23" x14ac:dyDescent="0.4">
       <c r="B71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
         <v>22</v>
@@ -3805,7 +3835,7 @@
         <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H71">
         <v>99.9</v>
@@ -3817,7 +3847,7 @@
         <v>0.2</v>
       </c>
       <c r="K71" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
